--- a/wild_reports/tr0712t012_wild_report.xlsx
+++ b/wild_reports/tr0712t012_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,7 +544,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -557,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -575,7 +579,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -593,7 +597,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -606,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -624,7 +632,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -642,7 +650,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -655,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -673,7 +685,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -691,7 +703,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -704,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
@@ -722,7 +738,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -740,7 +756,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -753,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -771,7 +791,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -789,7 +809,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -802,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
@@ -820,7 +844,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -838,7 +862,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -851,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
@@ -869,7 +897,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -887,7 +915,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -900,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
@@ -918,7 +950,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -936,7 +968,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -949,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
@@ -967,7 +1003,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -985,7 +1021,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -998,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1036,7 +1076,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1069,7 +1109,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1087,7 +1127,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1100,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1118,7 +1162,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1136,7 +1180,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1149,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
@@ -1167,7 +1215,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1185,7 +1233,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1198,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
@@ -1216,7 +1268,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1234,7 +1286,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1247,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
@@ -1265,7 +1321,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1283,7 +1339,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1296,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
@@ -1314,7 +1374,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1332,7 +1392,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1345,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
@@ -1363,7 +1427,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1381,7 +1445,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1394,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
@@ -1412,7 +1480,7 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1430,7 +1498,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1443,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
@@ -1461,7 +1533,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1479,7 +1551,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1492,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
@@ -1510,7 +1586,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1528,7 +1604,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1541,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
@@ -1559,7 +1639,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1577,7 +1657,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1590,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
@@ -1608,7 +1692,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1626,7 +1710,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1639,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
@@ -1657,7 +1745,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1675,7 +1763,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1688,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
@@ -1706,7 +1798,7 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1724,7 +1816,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1737,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
@@ -1775,7 +1871,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>LYNX</t>
+          <t>Lynx</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1808,7 +1904,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1826,7 +1922,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1839,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
@@ -1857,7 +1957,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1875,7 +1975,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1888,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
@@ -1906,7 +2010,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1924,7 +2028,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1937,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
@@ -1955,7 +2063,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1973,7 +2081,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1986,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
@@ -2004,7 +2116,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2022,7 +2134,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2035,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
@@ -2073,7 +2189,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>MARTEN</t>
+          <t>Marten</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2106,7 +2222,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2124,7 +2240,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2137,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
@@ -2155,7 +2275,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2173,7 +2293,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2186,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
@@ -2204,7 +2328,7 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2222,7 +2346,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2235,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
@@ -2253,7 +2381,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2271,7 +2399,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2284,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
@@ -2322,7 +2454,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>MINK</t>
+          <t>Mink</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -2355,7 +2487,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2373,7 +2505,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2386,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
@@ -2404,7 +2540,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2422,7 +2558,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2435,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -2453,7 +2593,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2471,7 +2611,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2484,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
@@ -2502,7 +2646,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2520,7 +2664,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2533,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
@@ -2551,7 +2699,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2569,7 +2717,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2582,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
@@ -2600,7 +2752,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -2618,7 +2770,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2631,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
@@ -2649,7 +2805,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2667,7 +2823,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2680,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
@@ -2698,7 +2858,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2716,7 +2876,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2729,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
@@ -2747,7 +2911,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2765,7 +2929,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2778,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
@@ -2796,7 +2964,7 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -2814,7 +2982,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2827,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
@@ -2845,7 +3017,7 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -2863,7 +3035,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2876,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
@@ -2894,7 +3070,7 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -2912,7 +3088,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2925,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
@@ -2943,7 +3123,7 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -2961,7 +3141,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2974,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
@@ -2992,7 +3176,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -3010,7 +3194,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3023,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
@@ -3041,7 +3229,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -3059,7 +3247,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3072,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
@@ -3090,7 +3282,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -3108,7 +3300,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3121,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
@@ -3139,7 +3335,7 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -3157,7 +3353,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3170,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
@@ -3188,7 +3388,7 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -3206,7 +3406,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3219,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
@@ -3237,7 +3441,7 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -3255,7 +3459,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3268,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
@@ -3286,7 +3494,7 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -3304,7 +3512,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3317,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
@@ -3335,7 +3547,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -3353,7 +3565,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3366,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
@@ -3384,7 +3600,7 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -3402,7 +3618,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3415,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
@@ -3433,7 +3653,7 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -3451,7 +3671,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3464,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
@@ -3482,7 +3706,7 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -3500,7 +3724,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3513,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
@@ -3531,7 +3759,7 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -3549,7 +3777,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3562,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
@@ -3580,7 +3812,7 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -3598,7 +3830,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3611,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
@@ -3629,7 +3865,7 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -3647,7 +3883,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3660,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
@@ -3678,7 +3918,7 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -3696,7 +3936,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3709,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
@@ -3727,7 +3971,7 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -3745,7 +3989,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3758,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
@@ -3776,7 +4024,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -3794,7 +4042,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3807,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
@@ -3825,7 +4077,7 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -3843,7 +4095,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3856,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
@@ -3874,7 +4130,7 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -3892,7 +4148,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3905,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
@@ -3923,7 +4183,7 @@
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -3941,7 +4201,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3954,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
@@ -3972,7 +4236,7 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -3990,7 +4254,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4003,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="2" t="inlineStr">
         <is>
@@ -4021,7 +4289,7 @@
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -4039,7 +4307,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4052,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
@@ -4070,7 +4342,7 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -4088,7 +4360,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4101,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
@@ -4119,7 +4395,7 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -4137,7 +4413,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4150,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="2" t="inlineStr">
         <is>
@@ -4168,7 +4448,7 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -4186,7 +4466,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4199,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="2" t="inlineStr">
         <is>
@@ -4217,7 +4501,7 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -4235,7 +4519,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr"/>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4248,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="2" t="inlineStr">
         <is>
@@ -4266,7 +4554,7 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -4284,7 +4572,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4297,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="2" t="inlineStr">
         <is>
@@ -4315,7 +4607,7 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -4333,7 +4625,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr"/>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4346,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="2" t="inlineStr">
         <is>
@@ -4364,7 +4660,7 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -4382,7 +4678,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4395,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="2" t="inlineStr">
         <is>
@@ -4413,7 +4713,7 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -4431,7 +4731,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G81" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4444,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="2" t="inlineStr">
         <is>
@@ -4462,7 +4766,7 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -4480,7 +4784,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G82" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4493,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="2" t="inlineStr">
         <is>
@@ -4511,7 +4819,7 @@
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -4529,7 +4837,11 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4542,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="2" t="inlineStr">
         <is>
@@ -4560,7 +4872,7 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -4578,7 +4890,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr"/>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4591,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="2" t="inlineStr">
         <is>
@@ -4609,7 +4925,7 @@
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -4627,7 +4943,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr"/>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4640,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="2" t="inlineStr">
         <is>
@@ -4658,7 +4978,7 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -4676,7 +4996,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4689,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="2" t="inlineStr">
         <is>
@@ -4707,7 +5031,7 @@
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -4725,7 +5049,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F87" s="2" t="inlineStr"/>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4738,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="2" t="inlineStr">
         <is>
@@ -4756,7 +5084,7 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -4774,7 +5102,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr"/>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4787,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" s="2" t="inlineStr">
         <is>

--- a/wild_reports/tr0712t012_wild_report.xlsx
+++ b/wild_reports/tr0712t012_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,11 +544,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -561,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -579,7 +575,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -597,11 +593,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -614,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -632,7 +624,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -650,11 +642,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -667,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -685,7 +673,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -703,11 +691,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -720,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
@@ -738,7 +722,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -756,11 +740,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -773,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -791,7 +771,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -809,11 +789,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -826,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
@@ -844,7 +820,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -862,11 +838,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -879,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
@@ -897,7 +869,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -915,11 +887,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -932,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
@@ -950,7 +918,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -968,11 +936,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -985,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
@@ -1003,7 +967,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1021,11 +985,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1038,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1109,7 +1069,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1127,11 +1087,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1144,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1162,7 +1118,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1180,11 +1136,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1197,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1167,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1233,11 +1185,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1250,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
@@ -1268,7 +1216,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1286,11 +1234,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1303,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
@@ -1321,7 +1265,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1339,11 +1283,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1356,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
@@ -1374,7 +1314,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1392,11 +1332,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1409,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
@@ -1427,7 +1363,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1445,11 +1381,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1462,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
@@ -1480,7 +1412,7 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1498,11 +1430,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1515,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
@@ -1533,7 +1461,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1551,11 +1479,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1568,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
@@ -1586,7 +1510,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1604,11 +1528,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1621,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
@@ -1639,7 +1559,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1657,11 +1577,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1674,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
@@ -1692,7 +1608,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1710,11 +1626,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1727,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
@@ -1745,7 +1657,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1763,11 +1675,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1780,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
@@ -1798,7 +1706,7 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1816,11 +1724,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1833,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
@@ -1904,7 +1808,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1922,11 +1826,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1939,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
@@ -1957,7 +1857,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1975,11 +1875,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -1992,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
@@ -2010,7 +1906,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -2028,11 +1924,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2045,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
@@ -2063,7 +1955,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -2081,11 +1973,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2098,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
@@ -2116,7 +2004,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2134,11 +2022,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2151,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
@@ -2222,7 +2106,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2240,11 +2124,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2257,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
@@ -2275,7 +2155,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2293,11 +2173,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2310,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
@@ -2328,7 +2204,7 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2346,11 +2222,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2363,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
@@ -2381,7 +2253,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2399,11 +2271,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2416,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
@@ -2487,7 +2355,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2505,11 +2373,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2522,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
@@ -2540,7 +2404,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2558,11 +2422,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2575,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -2593,7 +2453,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2611,11 +2471,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2628,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
@@ -2646,7 +2502,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2664,11 +2520,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2681,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
@@ -2699,7 +2551,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2717,11 +2569,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2734,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
@@ -2752,7 +2600,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -2770,11 +2618,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2787,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
@@ -2805,7 +2649,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2823,11 +2667,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2840,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
@@ -2858,7 +2698,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2876,11 +2716,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2893,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
@@ -2911,7 +2747,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2929,11 +2765,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2946,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
@@ -2964,7 +2796,7 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -2982,11 +2814,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -2999,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
@@ -3017,7 +2845,7 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -3035,11 +2863,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3052,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
@@ -3070,7 +2894,7 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -3088,11 +2912,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3105,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
@@ -3123,7 +2943,7 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -3141,11 +2961,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3158,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
@@ -3176,7 +2992,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -3194,11 +3010,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3211,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
@@ -3229,7 +3041,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -3247,11 +3059,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3264,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
@@ -3282,7 +3090,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -3300,11 +3108,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3317,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
@@ -3335,7 +3139,7 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -3353,11 +3157,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3370,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
@@ -3388,7 +3188,7 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -3406,11 +3206,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3423,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
@@ -3441,7 +3237,7 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -3459,11 +3255,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3476,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
@@ -3494,7 +3286,7 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -3512,11 +3304,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3529,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
@@ -3547,7 +3335,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -3565,11 +3353,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3582,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
@@ -3600,7 +3384,7 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -3618,11 +3402,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3635,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
@@ -3653,7 +3433,7 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -3671,11 +3451,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3688,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
@@ -3706,7 +3482,7 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -3724,11 +3500,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3741,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
@@ -3759,7 +3531,7 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -3777,11 +3549,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3794,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
@@ -3812,7 +3580,7 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -3830,11 +3598,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3847,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
@@ -3865,7 +3629,7 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -3883,11 +3647,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3900,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
@@ -3918,7 +3678,7 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -3936,11 +3696,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -3953,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
@@ -3971,7 +3727,7 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -3989,11 +3745,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4006,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
@@ -4024,7 +3776,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -4042,11 +3794,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4059,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
@@ -4077,7 +3825,7 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -4095,11 +3843,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4112,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
@@ -4130,7 +3874,7 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -4148,11 +3892,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4165,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
@@ -4183,7 +3923,7 @@
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -4201,11 +3941,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4218,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
@@ -4236,7 +3972,7 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -4254,11 +3990,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4271,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="2" t="inlineStr">
         <is>
@@ -4289,7 +4021,7 @@
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -4307,11 +4039,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4324,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
@@ -4342,7 +4070,7 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -4360,11 +4088,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4377,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
@@ -4395,7 +4119,7 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -4413,11 +4137,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4430,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="2" t="inlineStr">
         <is>
@@ -4448,7 +4168,7 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -4466,11 +4186,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4483,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="2" t="inlineStr">
         <is>
@@ -4501,7 +4217,7 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -4519,11 +4235,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4536,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="2" t="inlineStr">
         <is>
@@ -4554,7 +4266,7 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -4572,11 +4284,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4589,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="2" t="inlineStr">
         <is>
@@ -4607,7 +4315,7 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -4625,11 +4333,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4642,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="2" t="inlineStr">
         <is>
@@ -4660,7 +4364,7 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -4678,11 +4382,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4695,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="2" t="inlineStr">
         <is>
@@ -4713,7 +4413,7 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -4731,11 +4431,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4748,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="2" t="inlineStr">
         <is>
@@ -4766,7 +4462,7 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -4784,11 +4480,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4801,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="2" t="inlineStr">
         <is>
@@ -4819,7 +4511,7 @@
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -4837,11 +4529,7 @@
           <t>December</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4854,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="2" t="inlineStr">
         <is>
@@ -4872,7 +4560,7 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -4890,11 +4578,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4907,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="2" t="inlineStr">
         <is>
@@ -4925,7 +4609,7 @@
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -4943,11 +4627,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -4960,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="2" t="inlineStr">
         <is>
@@ -4978,7 +4658,7 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -4996,11 +4676,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -5013,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="2" t="inlineStr">
         <is>
@@ -5031,7 +4707,7 @@
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -5049,11 +4725,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -5066,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="2" t="inlineStr">
         <is>
@@ -5084,7 +4756,7 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -5102,11 +4774,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
           <t>712</t>
@@ -5119,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="2" t="inlineStr">
         <is>
